--- a/이어진/EohJinRPG/데이터.xlsx
+++ b/이어진/EohJinRPG/데이터.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="27840" windowHeight="12555" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="27840" windowHeight="12555" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="능력치 당 HP 필요치" sheetId="1" r:id="rId1"/>
     <sheet name="몬스터 정보" sheetId="2" r:id="rId2"/>
+    <sheet name="메뉴" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="43">
   <si>
     <t>능력치</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,6 +116,58 @@
   </si>
   <si>
     <t>));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>훈련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투 메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나가기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>훈련 메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>민첩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -15045,7 +15098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -15427,4 +15480,126 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>